--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,21 +73,27 @@
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -97,202 +103,187 @@
     <t>loved</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>cake</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nicely</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>clean</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
   </si>
   <si>
     <t>time</t>
@@ -659,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,13 +743,13 @@
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.425</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -796,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
@@ -828,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2713178294573643</v>
+        <v>0.375</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -878,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2121212121212121</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8421052631578947</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L6">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M6">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1923076923076923</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1135135135135135</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1019,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7173913043478261</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1045,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1071,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.6753246753246753</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L11">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1097,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6745762711864407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1123,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1149,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6338028169014085</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1184,13 +1175,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6252006420545746</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>779</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>779</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1202,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>467</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1210,13 +1201,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6222222222222222</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1228,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1236,13 +1227,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6029411764705882</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1254,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1262,13 +1253,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1280,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1288,13 +1279,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5942857142857143</v>
+        <v>0.6211878009630819</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>774</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>774</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1306,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1314,13 +1305,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5614035087719298</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1332,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1340,13 +1331,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5555555555555556</v>
+        <v>0.515625</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1358,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1366,7 +1357,7 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.546875</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L22">
         <v>35</v>
@@ -1384,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1392,13 +1383,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L23">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1410,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1421,10 +1412,10 @@
         <v>0.5</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1436,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1444,13 +1435,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4850299401197605</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="L25">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M25">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1462,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1470,13 +1461,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4711538461538461</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1488,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1496,13 +1487,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4698795180722892</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1514,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1522,13 +1513,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4615384615384616</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1540,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1548,13 +1539,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.46</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1566,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1574,13 +1565,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4511278195488722</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1592,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1600,13 +1591,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4461538461538462</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1618,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1626,13 +1617,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4375</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1644,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1652,13 +1643,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4262295081967213</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1670,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1678,13 +1669,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3975903614457831</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L34">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1696,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1704,13 +1695,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3968253968253968</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1722,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1730,13 +1721,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.392156862745098</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1748,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1756,13 +1747,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3538461538461539</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1774,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1782,13 +1773,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3424124513618677</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L38">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M38">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1800,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1808,13 +1799,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3383458646616541</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1826,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1834,13 +1825,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3357843137254902</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L40">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1852,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>271</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1860,13 +1851,13 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.3061224489795918</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1878,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1886,13 +1877,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.3061224489795918</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1904,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1912,13 +1903,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2741935483870968</v>
+        <v>0.3</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1930,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1938,13 +1929,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2733812949640288</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1956,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1964,13 +1955,13 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2716049382716049</v>
+        <v>0.2780821917808219</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1982,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>59</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1990,13 +1981,13 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2631578947368421</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2008,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2016,13 +2007,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.263013698630137</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L47">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="M47">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2034,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>538</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2042,13 +2033,13 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2344497607655502</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L48">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2060,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2094,13 +2085,13 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2222222222222222</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2112,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2120,13 +2111,13 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2178217821782178</v>
+        <v>0.2282023681377826</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2138,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>79</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2146,13 +2137,13 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2163616792249731</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L52">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2164,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>728</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2172,13 +2163,13 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.1724137931034483</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L53">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M53">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2190,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2198,13 +2189,13 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.1721854304635762</v>
+        <v>0.1726342710997442</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2216,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>125</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2224,13 +2215,13 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1713554987212276</v>
+        <v>0.1721854304635762</v>
       </c>
       <c r="L55">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2242,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>648</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2250,13 +2241,13 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.1711711711711712</v>
+        <v>0.1708609271523179</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2268,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>92</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2276,13 +2267,13 @@
         <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1629139072847682</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L57">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2294,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>632</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2302,25 +2293,25 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1476510067114094</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2328,7 +2319,7 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1376146788990826</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L59">
         <v>15</v>
@@ -2346,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2354,13 +2345,13 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1311475409836066</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2372,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2380,13 +2371,13 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1260504201680672</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2398,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>208</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2406,13 +2397,13 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1219512195121951</v>
+        <v>0.1401617250673854</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2424,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>144</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2432,13 +2423,13 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1186440677966102</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2450,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>156</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2458,13 +2449,13 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1181818181818182</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L64">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2476,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>388</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2484,13 +2475,13 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1168384879725086</v>
+        <v>0.1</v>
       </c>
       <c r="L65">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M65">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2502,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>257</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2510,13 +2501,13 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1153846153846154</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2528,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>115</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2536,7 +2527,7 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1151515151515152</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="L67">
         <v>19</v>
@@ -2554,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2562,13 +2553,13 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1143552311435523</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L68">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2580,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>364</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2588,25 +2579,25 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1054054054054054</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L69">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M69">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>331</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2614,13 +2605,13 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.09815950920245399</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2632,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>147</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2640,13 +2631,13 @@
         <v>83</v>
       </c>
       <c r="K71">
-        <v>0.09225092250922509</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2658,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>246</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2666,13 +2657,13 @@
         <v>84</v>
       </c>
       <c r="K72">
-        <v>0.08518518518518518</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2684,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2692,13 +2683,13 @@
         <v>85</v>
       </c>
       <c r="K73">
-        <v>0.07881773399014778</v>
+        <v>0.06205250596658711</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2710,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>187</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2718,25 +2709,25 @@
         <v>86</v>
       </c>
       <c r="K74">
-        <v>0.07875894988066826</v>
+        <v>0.05788982259570495</v>
       </c>
       <c r="L74">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M74">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>386</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2744,25 +2735,25 @@
         <v>87</v>
       </c>
       <c r="K75">
-        <v>0.06599713055954089</v>
+        <v>0.05191256830601093</v>
       </c>
       <c r="L75">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M75">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>651</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2770,25 +2761,25 @@
         <v>88</v>
       </c>
       <c r="K76">
-        <v>0.06578947368421052</v>
+        <v>0.05164992826398852</v>
       </c>
       <c r="L76">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M76">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>426</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2796,13 +2787,13 @@
         <v>89</v>
       </c>
       <c r="K77">
-        <v>0.06284153005464481</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M77">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2814,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2822,25 +2813,25 @@
         <v>90</v>
       </c>
       <c r="K78">
-        <v>0.04855275443510738</v>
+        <v>0.03505535055350553</v>
       </c>
       <c r="L78">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N78">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1019</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2848,103 +2839,25 @@
         <v>91</v>
       </c>
       <c r="K79">
-        <v>0.04568527918781726</v>
+        <v>0.03032928942807626</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
-      <c r="J80" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K80">
-        <v>0.04395604395604396</v>
-      </c>
-      <c r="L80">
-        <v>16</v>
-      </c>
-      <c r="M80">
-        <v>17</v>
-      </c>
-      <c r="N80">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O80">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K81">
-        <v>0.03690036900369004</v>
-      </c>
-      <c r="L81">
-        <v>20</v>
-      </c>
-      <c r="M81">
-        <v>20</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K82">
-        <v>0.0268630849220104</v>
-      </c>
-      <c r="L82">
-        <v>31</v>
-      </c>
-      <c r="M82">
-        <v>34</v>
-      </c>
-      <c r="N82">
-        <v>0.91</v>
-      </c>
-      <c r="O82">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
